--- a/biology/Botanique/Daniel_Zohary/Daniel_Zohary.xlsx
+++ b/biology/Botanique/Daniel_Zohary/Daniel_Zohary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Zohary est un botaniste israélien né le 24 avril 1926 à Jérusalem[1], et mort le 16 décembre 2016. Il est spécialiste en botanique économique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Zohary est un botaniste israélien né le 24 avril 1926 à Jérusalem, et mort le 16 décembre 2016. Il est spécialiste en botanique économique.
 </t>
         </is>
       </c>
@@ -513,10 +525,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Livres
-(en) Daniel Zohary, Maria Hopf et Ehud Weiss, Domestication of Plants in the Old World : The Origin and Spread of Domesticated Plants in Southwest Asia, Europe, and the Mediterranean Basin, Oxford University Press on Demand, 2012, 243 p. (ISBN 978-0-19-954906-1 et 0199549060, lire en ligne).
-Articles
-(en) Ehud Weiss et Daniel Zohary, « The Neolithic Southwest Asian founder crops : their biology and archaeobotany », Current anthropology: A world journal of the sciences of man, Chicago, Chicago university press, no Extra 4,‎ 2011, p. 237-254 (ISSN 0011-3204)
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Daniel Zohary, Maria Hopf et Ehud Weiss, Domestication of Plants in the Old World : The Origin and Spread of Domesticated Plants in Southwest Asia, Europe, and the Mediterranean Basin, Oxford University Press on Demand, 2012, 243 p. (ISBN 978-0-19-954906-1 et 0199549060, lire en ligne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Daniel_Zohary</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Zohary</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Ehud Weiss et Daniel Zohary, « The Neolithic Southwest Asian founder crops : their biology and archaeobotany », Current anthropology: A world journal of the sciences of man, Chicago, Chicago university press, no Extra 4,‎ 2011, p. 237-254 (ISSN 0011-3204)
 (en) Ehud Weiss et Daniel Zohary, « The beginnings of agriculture in China : a multiregional view », Current anthropology: A world journal of the sciences of man, Chicago, Chicago university press, no Extra 4,‎ 2011, p. 273-306 (ISSN 0011-3204)
 (en) Daniel Zohary, « Unconscious selection and the evolution of domesticated Plants », Economic Botany, vol. 58, no 1,‎ mars 2004, p. 5–10 (DOI 10.1663/0013-0001(2004)058[0005usateo]2.0.co;2).
 (en) Daniel Zohary, « Speciation patterns in predominately self-pollinated mediterranean annuals. », Lagascalia, vol. 19, nos 1-2,‎ 1997, p. 283-288 (ISSN 0210-7708, lire en ligne).</t>
